--- a/kittyserver/gametools/parseExcelTool/Excel/Manservant.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Manservant.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
